--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value98.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value98.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9610238457909798</v>
+        <v>1.835141539573669</v>
       </c>
       <c r="B1">
-        <v>1.361677048170048</v>
+        <v>3.202824354171753</v>
       </c>
       <c r="C1">
-        <v>2.538312631002946</v>
+        <v>2.860763072967529</v>
       </c>
       <c r="D1">
-        <v>4.926651646378759</v>
+        <v>1.646771669387817</v>
       </c>
       <c r="E1">
-        <v>1.256380453062351</v>
+        <v>0.9598884582519531</v>
       </c>
     </row>
   </sheetData>
